--- a/TestData/Liskart_Registration_Test_Data.xlsx
+++ b/TestData/Liskart_Registration_Test_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\liskart_qa_automation_bdd\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B10B3-45C2-4105-A0FE-2C2E8C79FCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9D0990-3D42-4B8D-AC45-A7B6A2A607D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liskart_Registration_Test_Data" sheetId="2" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -506,7 +506,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
